--- a/docs/OFERTA.xlsx
+++ b/docs/OFERTA.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B296A53C-F64E-46F2-925A-2BD47D4D5012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA41D0-87CF-457B-A662-9E92B2B2D6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1890" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPF10V5_Ppta Final" sheetId="7" r:id="rId1"/>
@@ -1396,6 +1396,32 @@
     <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,14 +1484,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1490,6 +1508,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1506,11 +1532,35 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="31" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1527,54 +1577,6 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="38" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1614,31 +1616,29 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1673,286 +1673,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>373</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>186</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Grupo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4E595B-15B7-43D3-9225-C1493E377A54}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="76573" y="19050"/>
-          <a:ext cx="18687863" cy="2438400"/>
-          <a:chOff x="149154" y="0"/>
-          <a:chExt cx="9591746" cy="1479550"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="3" name="Imagen 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3764E345-95E5-4E56-BD64-28A3A679B497}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="149154" y="0"/>
-            <a:ext cx="9591746" cy="1479550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Cuadro de texto 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DD3C9B-D37D-4A6F-B7B2-C17D4CA8250B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8948818" y="397936"/>
-            <a:ext cx="760041" cy="723285"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1200"/>
-              </a:lnSpc>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Montserrat Hairline"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>OPF10V6</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1200"/>
-              </a:lnSpc>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Montserrat Hairline"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Vigencia:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1100"/>
-              </a:lnSpc>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Montserrat Hairline"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>23/04/2024</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:lnSpc>
-                <a:spcPts val="1000"/>
-              </a:lnSpc>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="1200">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Montserrat Hairline"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>Página 1 de 1 </a:t>
-            </a:r>
-            <a:endParaRPr lang="es-CO" sz="2800">
-              <a:effectLst/>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Cuadro de texto 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E3B394-BA0F-4F98-8C03-732254F04B04}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1761164" y="397491"/>
-            <a:ext cx="7066729" cy="704412"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="6350">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-CO" sz="2400" b="1">
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:rPr>
-              <a:t>OFERTA</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2232,7 +1952,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2805,7 +2525,7 @@
   </sheetPr>
   <dimension ref="A12:O93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A71" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D86" sqref="D86:K86"/>
     </sheetView>
   </sheetViews>
@@ -2844,22 +2564,22 @@
       <c r="O14" s="14"/>
     </row>
     <row r="15" spans="2:15" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="93"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="100"/>
     </row>
     <row r="16" spans="2:15" s="3" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="48"/>
@@ -2878,36 +2598,36 @@
       <c r="O16" s="16"/>
     </row>
     <row r="17" spans="2:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="119" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="112" t="s">
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="113"/>
-      <c r="G17" s="112" t="s">
+      <c r="F17" s="118"/>
+      <c r="G17" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="113"/>
-      <c r="I17" s="111" t="s">
+      <c r="H17" s="118"/>
+      <c r="I17" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="111"/>
-      <c r="K17" s="158" t="s">
+      <c r="J17" s="116"/>
+      <c r="K17" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="159"/>
+      <c r="L17" s="123"/>
       <c r="N17" s="83"/>
       <c r="O17" s="87"/>
     </row>
     <row r="18" spans="2:15" s="3" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="110"/>
-      <c r="D18" s="162"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="85" t="s">
         <v>43</v>
       </c>
@@ -2920,10 +2640,10 @@
         <v>44</v>
       </c>
       <c r="J18" s="84"/>
-      <c r="K18" s="160" t="s">
+      <c r="K18" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="161"/>
+      <c r="L18" s="93"/>
       <c r="N18" s="83"/>
       <c r="O18" s="87"/>
     </row>
@@ -2994,7 +2714,7 @@
       <c r="C21" s="54"/>
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="156"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="19">
         <f t="shared" ref="G21" si="0">+F21*E21</f>
         <v>0</v>
@@ -3027,7 +2747,7 @@
       <c r="C22" s="52"/>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="156"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="19">
         <f>+F22*E22</f>
         <v>0</v>
@@ -3060,7 +2780,7 @@
       <c r="C23" s="52"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="156"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="19">
         <f t="shared" ref="G23:G75" si="1">+F23*E23</f>
         <v>0</v>
@@ -3093,7 +2813,7 @@
       <c r="C24" s="52"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="156"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3126,7 +2846,7 @@
       <c r="C25" s="52"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="156"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3159,7 +2879,7 @@
       <c r="C26" s="52"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="156"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3192,7 +2912,7 @@
       <c r="C27" s="52"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
-      <c r="F27" s="156"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3225,7 +2945,7 @@
       <c r="C28" s="52"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="156"/>
+      <c r="F28" s="90"/>
       <c r="G28" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3258,7 +2978,7 @@
       <c r="C29" s="52"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18"/>
-      <c r="F29" s="156"/>
+      <c r="F29" s="90"/>
       <c r="G29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3291,7 +3011,7 @@
       <c r="C30" s="52"/>
       <c r="D30" s="17"/>
       <c r="E30" s="18"/>
-      <c r="F30" s="156"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3324,7 +3044,7 @@
       <c r="C31" s="52"/>
       <c r="D31" s="17"/>
       <c r="E31" s="18"/>
-      <c r="F31" s="156"/>
+      <c r="F31" s="90"/>
       <c r="G31" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3357,7 +3077,7 @@
       <c r="C32" s="52"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
-      <c r="F32" s="156"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3390,7 +3110,7 @@
       <c r="C33" s="52"/>
       <c r="D33" s="17"/>
       <c r="E33" s="18"/>
-      <c r="F33" s="156"/>
+      <c r="F33" s="90"/>
       <c r="G33" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3423,7 +3143,7 @@
       <c r="C34" s="52"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
-      <c r="F34" s="156"/>
+      <c r="F34" s="90"/>
       <c r="G34" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3456,7 +3176,7 @@
       <c r="C35" s="52"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18"/>
-      <c r="F35" s="156"/>
+      <c r="F35" s="90"/>
       <c r="G35" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3489,7 +3209,7 @@
       <c r="C36" s="52"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
-      <c r="F36" s="156"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3522,7 +3242,7 @@
       <c r="C37" s="52"/>
       <c r="D37" s="17"/>
       <c r="E37" s="18"/>
-      <c r="F37" s="156"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3555,7 +3275,7 @@
       <c r="C38" s="52"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
-      <c r="F38" s="156"/>
+      <c r="F38" s="90"/>
       <c r="G38" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3588,7 +3308,7 @@
       <c r="C39" s="52"/>
       <c r="D39" s="17"/>
       <c r="E39" s="18"/>
-      <c r="F39" s="156"/>
+      <c r="F39" s="90"/>
       <c r="G39" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3621,7 +3341,7 @@
       <c r="C40" s="52"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
-      <c r="F40" s="156"/>
+      <c r="F40" s="90"/>
       <c r="G40" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3654,7 +3374,7 @@
       <c r="C41" s="52"/>
       <c r="D41" s="17"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="156"/>
+      <c r="F41" s="90"/>
       <c r="G41" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3687,7 +3407,7 @@
       <c r="C42" s="52"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
-      <c r="F42" s="156"/>
+      <c r="F42" s="90"/>
       <c r="G42" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3720,7 +3440,7 @@
       <c r="C43" s="52"/>
       <c r="D43" s="17"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="156"/>
+      <c r="F43" s="90"/>
       <c r="G43" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3753,7 +3473,7 @@
       <c r="C44" s="52"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="156"/>
+      <c r="F44" s="90"/>
       <c r="G44" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3786,7 +3506,7 @@
       <c r="C45" s="52"/>
       <c r="D45" s="17"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="156"/>
+      <c r="F45" s="90"/>
       <c r="G45" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3819,7 +3539,7 @@
       <c r="C46" s="52"/>
       <c r="D46" s="17"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="156"/>
+      <c r="F46" s="90"/>
       <c r="G46" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3852,7 +3572,7 @@
       <c r="C47" s="52"/>
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="156"/>
+      <c r="F47" s="90"/>
       <c r="G47" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3885,7 +3605,7 @@
       <c r="C48" s="52"/>
       <c r="D48" s="17"/>
       <c r="E48" s="18"/>
-      <c r="F48" s="156"/>
+      <c r="F48" s="90"/>
       <c r="G48" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3918,7 +3638,7 @@
       <c r="C49" s="52"/>
       <c r="D49" s="17"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="156"/>
+      <c r="F49" s="90"/>
       <c r="G49" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3951,7 +3671,7 @@
       <c r="C50" s="52"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
-      <c r="F50" s="156"/>
+      <c r="F50" s="90"/>
       <c r="G50" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3984,7 +3704,7 @@
       <c r="C51" s="52"/>
       <c r="D51" s="17"/>
       <c r="E51" s="18"/>
-      <c r="F51" s="156"/>
+      <c r="F51" s="90"/>
       <c r="G51" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4017,7 +3737,7 @@
       <c r="C52" s="52"/>
       <c r="D52" s="17"/>
       <c r="E52" s="18"/>
-      <c r="F52" s="156"/>
+      <c r="F52" s="90"/>
       <c r="G52" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4050,7 +3770,7 @@
       <c r="C53" s="52"/>
       <c r="D53" s="17"/>
       <c r="E53" s="18"/>
-      <c r="F53" s="156"/>
+      <c r="F53" s="90"/>
       <c r="G53" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4083,7 +3803,7 @@
       <c r="C54" s="52"/>
       <c r="D54" s="17"/>
       <c r="E54" s="18"/>
-      <c r="F54" s="156"/>
+      <c r="F54" s="90"/>
       <c r="G54" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4116,7 +3836,7 @@
       <c r="C55" s="52"/>
       <c r="D55" s="17"/>
       <c r="E55" s="18"/>
-      <c r="F55" s="156"/>
+      <c r="F55" s="90"/>
       <c r="G55" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4149,7 +3869,7 @@
       <c r="C56" s="52"/>
       <c r="D56" s="17"/>
       <c r="E56" s="18"/>
-      <c r="F56" s="156"/>
+      <c r="F56" s="90"/>
       <c r="G56" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4182,7 +3902,7 @@
       <c r="C57" s="52"/>
       <c r="D57" s="17"/>
       <c r="E57" s="18"/>
-      <c r="F57" s="156"/>
+      <c r="F57" s="90"/>
       <c r="G57" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4215,7 +3935,7 @@
       <c r="C58" s="52"/>
       <c r="D58" s="17"/>
       <c r="E58" s="18"/>
-      <c r="F58" s="156"/>
+      <c r="F58" s="90"/>
       <c r="G58" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4248,7 +3968,7 @@
       <c r="C59" s="52"/>
       <c r="D59" s="17"/>
       <c r="E59" s="18"/>
-      <c r="F59" s="156"/>
+      <c r="F59" s="90"/>
       <c r="G59" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4281,7 +4001,7 @@
       <c r="C60" s="52"/>
       <c r="D60" s="17"/>
       <c r="E60" s="18"/>
-      <c r="F60" s="156"/>
+      <c r="F60" s="90"/>
       <c r="G60" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4314,7 +4034,7 @@
       <c r="C61" s="52"/>
       <c r="D61" s="17"/>
       <c r="E61" s="18"/>
-      <c r="F61" s="156"/>
+      <c r="F61" s="90"/>
       <c r="G61" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4347,7 +4067,7 @@
       <c r="C62" s="52"/>
       <c r="D62" s="17"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="156"/>
+      <c r="F62" s="90"/>
       <c r="G62" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4380,7 +4100,7 @@
       <c r="C63" s="52"/>
       <c r="D63" s="17"/>
       <c r="E63" s="18"/>
-      <c r="F63" s="156"/>
+      <c r="F63" s="90"/>
       <c r="G63" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4413,7 +4133,7 @@
       <c r="C64" s="52"/>
       <c r="D64" s="17"/>
       <c r="E64" s="18"/>
-      <c r="F64" s="156"/>
+      <c r="F64" s="90"/>
       <c r="G64" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4446,7 +4166,7 @@
       <c r="C65" s="52"/>
       <c r="D65" s="17"/>
       <c r="E65" s="18"/>
-      <c r="F65" s="156"/>
+      <c r="F65" s="90"/>
       <c r="G65" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4479,7 +4199,7 @@
       <c r="C66" s="52"/>
       <c r="D66" s="17"/>
       <c r="E66" s="18"/>
-      <c r="F66" s="156"/>
+      <c r="F66" s="90"/>
       <c r="G66" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4512,7 +4232,7 @@
       <c r="C67" s="52"/>
       <c r="D67" s="17"/>
       <c r="E67" s="18"/>
-      <c r="F67" s="156"/>
+      <c r="F67" s="90"/>
       <c r="G67" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4545,7 +4265,7 @@
       <c r="C68" s="52"/>
       <c r="D68" s="17"/>
       <c r="E68" s="18"/>
-      <c r="F68" s="156"/>
+      <c r="F68" s="90"/>
       <c r="G68" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4578,7 +4298,7 @@
       <c r="C69" s="52"/>
       <c r="D69" s="17"/>
       <c r="E69" s="18"/>
-      <c r="F69" s="156"/>
+      <c r="F69" s="90"/>
       <c r="G69" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4611,7 +4331,7 @@
       <c r="C70" s="52"/>
       <c r="D70" s="17"/>
       <c r="E70" s="18"/>
-      <c r="F70" s="156"/>
+      <c r="F70" s="90"/>
       <c r="G70" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4644,7 +4364,7 @@
       <c r="C71" s="52"/>
       <c r="D71" s="17"/>
       <c r="E71" s="18"/>
-      <c r="F71" s="156"/>
+      <c r="F71" s="90"/>
       <c r="G71" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4677,7 +4397,7 @@
       <c r="C72" s="52"/>
       <c r="D72" s="17"/>
       <c r="E72" s="18"/>
-      <c r="F72" s="156"/>
+      <c r="F72" s="90"/>
       <c r="G72" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4710,7 +4430,7 @@
       <c r="C73" s="52"/>
       <c r="D73" s="17"/>
       <c r="E73" s="18"/>
-      <c r="F73" s="156"/>
+      <c r="F73" s="90"/>
       <c r="G73" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4743,7 +4463,7 @@
       <c r="C74" s="52"/>
       <c r="D74" s="17"/>
       <c r="E74" s="18"/>
-      <c r="F74" s="156"/>
+      <c r="F74" s="90"/>
       <c r="G74" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4776,7 +4496,7 @@
       <c r="C75" s="75"/>
       <c r="D75" s="38"/>
       <c r="E75" s="37"/>
-      <c r="F75" s="157"/>
+      <c r="F75" s="91"/>
       <c r="G75" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4886,58 +4606,58 @@
     </row>
     <row r="81" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
-      <c r="B81" s="105" t="s">
+      <c r="B81" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="105"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="105"/>
-      <c r="H81" s="105"/>
-      <c r="I81" s="105"/>
-      <c r="J81" s="105"/>
-      <c r="K81" s="105"/>
-      <c r="L81" s="105"/>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
-      <c r="O81" s="106"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="112"/>
+      <c r="E81" s="112"/>
+      <c r="F81" s="112"/>
+      <c r="G81" s="112"/>
+      <c r="H81" s="112"/>
+      <c r="I81" s="112"/>
+      <c r="J81" s="112"/>
+      <c r="K81" s="112"/>
+      <c r="L81" s="112"/>
+      <c r="M81" s="112"/>
+      <c r="N81" s="112"/>
+      <c r="O81" s="113"/>
     </row>
     <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
-      <c r="B82" s="107" t="s">
+      <c r="B82" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="107"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="107"/>
-      <c r="N82" s="107"/>
-      <c r="O82" s="108"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="114"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="114"/>
+      <c r="O82" s="115"/>
     </row>
     <row r="83" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="105"/>
-      <c r="K83" s="105"/>
-      <c r="L83" s="105"/>
-      <c r="M83" s="105"/>
-      <c r="N83" s="105"/>
-      <c r="O83" s="106"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="112"/>
+      <c r="L83" s="112"/>
+      <c r="M83" s="112"/>
+      <c r="N83" s="112"/>
+      <c r="O83" s="113"/>
     </row>
     <row r="84" spans="1:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
@@ -4947,16 +4667,16 @@
       <c r="C84" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="90" t="s">
+      <c r="D84" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="E84" s="90"/>
-      <c r="F84" s="90"/>
-      <c r="G84" s="90"/>
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-      <c r="J84" s="90"/>
-      <c r="K84" s="90"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="97"/>
       <c r="L84" s="82"/>
       <c r="M84" s="82"/>
       <c r="N84" s="82"/>
@@ -4970,16 +4690,16 @@
       <c r="C85" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="90" t="s">
+      <c r="D85" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="E85" s="90"/>
-      <c r="F85" s="90"/>
-      <c r="G85" s="90"/>
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-      <c r="J85" s="90"/>
-      <c r="K85" s="90"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
       <c r="L85" s="82"/>
       <c r="M85" s="82"/>
       <c r="N85" s="82"/>
@@ -4991,14 +4711,14 @@
       <c r="C86" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
-      <c r="K86" s="90"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
       <c r="L86" s="82"/>
       <c r="M86" s="82"/>
       <c r="N86" s="82"/>
@@ -5006,132 +4726,127 @@
     </row>
     <row r="87" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="105"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="105"/>
-      <c r="E87" s="105"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="105"/>
-      <c r="H87" s="105"/>
-      <c r="I87" s="105"/>
-      <c r="J87" s="105"/>
-      <c r="K87" s="105"/>
-      <c r="L87" s="105"/>
-      <c r="M87" s="105"/>
-      <c r="N87" s="105"/>
-      <c r="O87" s="106"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
+      <c r="L87" s="112"/>
+      <c r="M87" s="112"/>
+      <c r="N87" s="112"/>
+      <c r="O87" s="113"/>
     </row>
     <row r="88" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="94" t="s">
+      <c r="B88" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="94"/>
-      <c r="H88" s="94"/>
-      <c r="I88" s="94"/>
-      <c r="J88" s="94"/>
-      <c r="K88" s="94"/>
-      <c r="L88" s="94"/>
-      <c r="M88" s="94"/>
-      <c r="N88" s="94"/>
-      <c r="O88" s="95"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="101"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="101"/>
+      <c r="I88" s="101"/>
+      <c r="J88" s="101"/>
+      <c r="K88" s="101"/>
+      <c r="L88" s="101"/>
+      <c r="M88" s="101"/>
+      <c r="N88" s="101"/>
+      <c r="O88" s="102"/>
     </row>
     <row r="89" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
-      <c r="B89" s="96"/>
-      <c r="C89" s="97"/>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="97"/>
-      <c r="J89" s="97"/>
-      <c r="K89" s="97"/>
-      <c r="L89" s="97"/>
-      <c r="M89" s="97"/>
-      <c r="N89" s="97"/>
-      <c r="O89" s="98"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="104"/>
+      <c r="E89" s="104"/>
+      <c r="F89" s="104"/>
+      <c r="G89" s="104"/>
+      <c r="H89" s="104"/>
+      <c r="I89" s="104"/>
+      <c r="J89" s="104"/>
+      <c r="K89" s="104"/>
+      <c r="L89" s="104"/>
+      <c r="M89" s="104"/>
+      <c r="N89" s="104"/>
+      <c r="O89" s="105"/>
     </row>
     <row r="90" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
-      <c r="B90" s="99"/>
-      <c r="C90" s="100"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="100"/>
-      <c r="G90" s="100"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="100"/>
-      <c r="J90" s="100"/>
-      <c r="K90" s="100"/>
-      <c r="L90" s="100"/>
-      <c r="M90" s="100"/>
-      <c r="N90" s="100"/>
-      <c r="O90" s="101"/>
+      <c r="B90" s="106"/>
+      <c r="C90" s="107"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="107"/>
+      <c r="F90" s="107"/>
+      <c r="G90" s="107"/>
+      <c r="H90" s="107"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="107"/>
+      <c r="K90" s="107"/>
+      <c r="L90" s="107"/>
+      <c r="M90" s="107"/>
+      <c r="N90" s="107"/>
+      <c r="O90" s="108"/>
     </row>
     <row r="91" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="100"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="100"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="100"/>
-      <c r="L91" s="100"/>
-      <c r="M91" s="100"/>
-      <c r="N91" s="100"/>
-      <c r="O91" s="101"/>
+      <c r="B91" s="106"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="107"/>
+      <c r="I91" s="107"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="107"/>
+      <c r="L91" s="107"/>
+      <c r="M91" s="107"/>
+      <c r="N91" s="107"/>
+      <c r="O91" s="108"/>
     </row>
     <row r="92" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
-      <c r="B92" s="99"/>
-      <c r="C92" s="100"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="100"/>
-      <c r="G92" s="100"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="100"/>
-      <c r="J92" s="100"/>
-      <c r="K92" s="100"/>
-      <c r="L92" s="100"/>
-      <c r="M92" s="100"/>
-      <c r="N92" s="100"/>
-      <c r="O92" s="101"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="107"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="107"/>
+      <c r="J92" s="107"/>
+      <c r="K92" s="107"/>
+      <c r="L92" s="107"/>
+      <c r="M92" s="107"/>
+      <c r="N92" s="107"/>
+      <c r="O92" s="108"/>
     </row>
     <row r="93" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-      <c r="B93" s="102"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="103"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="103"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="103"/>
-      <c r="I93" s="103"/>
-      <c r="J93" s="103"/>
-      <c r="K93" s="103"/>
-      <c r="L93" s="103"/>
-      <c r="M93" s="103"/>
-      <c r="N93" s="103"/>
-      <c r="O93" s="104"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="110"/>
+      <c r="E93" s="110"/>
+      <c r="F93" s="110"/>
+      <c r="G93" s="110"/>
+      <c r="H93" s="110"/>
+      <c r="I93" s="110"/>
+      <c r="J93" s="110"/>
+      <c r="K93" s="110"/>
+      <c r="L93" s="110"/>
+      <c r="M93" s="110"/>
+      <c r="N93" s="110"/>
+      <c r="O93" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="D86:K86"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B88:O88"/>
     <mergeCell ref="B89:O93"/>
     <mergeCell ref="B81:O81"/>
     <mergeCell ref="B82:O82"/>
@@ -5139,6 +4854,11 @@
     <mergeCell ref="D84:K84"/>
     <mergeCell ref="D85:K85"/>
     <mergeCell ref="B87:O87"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="D86:K86"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B88:O88"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="E17:F17"/>
@@ -5161,7 +4881,6 @@
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -5232,18 +4951,18 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="2:11" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="93"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
     </row>
     <row r="15" spans="2:11" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
@@ -5258,32 +4977,32 @@
       <c r="K15" s="16"/>
     </row>
     <row r="16" spans="2:11" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="119" t="s">
+      <c r="C16" s="125"/>
+      <c r="D16" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="120"/>
-      <c r="F16" s="120" t="s">
+      <c r="E16" s="127"/>
+      <c r="F16" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120" t="s">
+      <c r="G16" s="127"/>
+      <c r="H16" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="118"/>
+      <c r="I16" s="125"/>
       <c r="J16" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K16" s="64"/>
     </row>
     <row r="17" spans="2:11" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="118"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="59" t="s">
         <v>43</v>
       </c>
@@ -5820,46 +5539,46 @@
     </row>
     <row r="48" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="105" t="s">
+      <c r="B48" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="106"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
+      <c r="G48" s="112"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="112"/>
+      <c r="K48" s="113"/>
     </row>
     <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="108"/>
+      <c r="C49" s="114"/>
+      <c r="D49" s="114"/>
+      <c r="E49" s="114"/>
+      <c r="F49" s="114"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="114"/>
+      <c r="I49" s="114"/>
+      <c r="J49" s="114"/>
+      <c r="K49" s="115"/>
     </row>
     <row r="50" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="106"/>
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="113"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
@@ -5869,15 +5588,15 @@
       <c r="C51" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="97"/>
       <c r="K51" s="21"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -5888,109 +5607,109 @@
       <c r="C52" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="90" t="s">
+      <c r="D52" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="90"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
       <c r="K52" s="21"/>
     </row>
     <row r="53" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="105"/>
-      <c r="H53" s="105"/>
-      <c r="I53" s="105"/>
-      <c r="J53" s="105"/>
-      <c r="K53" s="106"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="112"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="112"/>
+      <c r="J53" s="112"/>
+      <c r="K53" s="113"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
-      <c r="B54" s="94" t="s">
+      <c r="B54" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="94"/>
-      <c r="J54" s="94"/>
-      <c r="K54" s="95"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="102"/>
     </row>
     <row r="55" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="98"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="105"/>
     </row>
     <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="101"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="107"/>
+      <c r="K56" s="108"/>
     </row>
     <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="101"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="108"/>
     </row>
     <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="101"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="107"/>
+      <c r="K58" s="108"/>
     </row>
     <row r="59" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="104"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6086,17 +5805,17 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="2:10" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="2:10" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
@@ -6110,53 +5829,53 @@
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="2:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="118"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
       <c r="G14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="138"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="126"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="59" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="58"/>
-      <c r="F15" s="119" t="s">
+      <c r="F15" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="120"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="125"/>
       <c r="I15" s="60" t="s">
         <v>38</v>
       </c>
       <c r="J15" s="64"/>
     </row>
     <row r="16" spans="2:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="126"/>
+      <c r="C16" s="140"/>
       <c r="D16" s="59" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="58"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
       <c r="I16" s="60" t="s">
         <v>39</v>
       </c>
@@ -6195,10 +5914,10 @@
       <c r="H18" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="130" t="s">
+      <c r="I18" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="131"/>
+      <c r="J18" s="134"/>
     </row>
     <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="35">
@@ -6213,8 +5932,8 @@
         <f t="shared" ref="H19" si="0">+G19*F19</f>
         <v>0</v>
       </c>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="35">
@@ -6229,8 +5948,8 @@
         <f>+G20*F20</f>
         <v>0</v>
       </c>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="35">
@@ -6245,8 +5964,8 @@
         <f t="shared" ref="H21:H41" si="1">+G21*F21</f>
         <v>0</v>
       </c>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B22" s="35">
@@ -6261,8 +5980,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="35">
@@ -6277,8 +5996,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="121"/>
-      <c r="J23" s="122"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="131"/>
     </row>
     <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="35">
@@ -6293,8 +6012,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="35">
@@ -6309,8 +6028,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="131"/>
     </row>
     <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="35">
@@ -6325,8 +6044,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="121"/>
-      <c r="J26" s="122"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="131"/>
     </row>
     <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B27" s="35">
@@ -6341,8 +6060,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="121"/>
-      <c r="J27" s="122"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="131"/>
     </row>
     <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="35">
@@ -6357,8 +6076,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="121"/>
-      <c r="J28" s="122"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="131"/>
     </row>
     <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B29" s="35">
@@ -6373,8 +6092,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="121"/>
-      <c r="J29" s="122"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="131"/>
     </row>
     <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="35">
@@ -6389,8 +6108,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="121"/>
-      <c r="J30" s="122"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="131"/>
     </row>
     <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="35">
@@ -6405,8 +6124,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="121"/>
-      <c r="J31" s="122"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="131"/>
     </row>
     <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="35">
@@ -6421,8 +6140,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="121"/>
-      <c r="J32" s="122"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="131"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="35">
@@ -6437,8 +6156,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="121"/>
-      <c r="J33" s="122"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="131"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="35">
@@ -6453,8 +6172,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="121"/>
-      <c r="J34" s="122"/>
+      <c r="I34" s="130"/>
+      <c r="J34" s="131"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="35">
@@ -6469,8 +6188,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="121"/>
-      <c r="J35" s="122"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="131"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="35">
@@ -6485,8 +6204,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="131"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="35">
@@ -6501,8 +6220,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="121"/>
-      <c r="J37" s="122"/>
+      <c r="I37" s="130"/>
+      <c r="J37" s="131"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="35">
@@ -6517,8 +6236,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="121"/>
-      <c r="J38" s="122"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="131"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="35">
@@ -6533,8 +6252,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
+      <c r="I39" s="130"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="35">
@@ -6549,8 +6268,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="131"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="36">
@@ -6565,8 +6284,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="132"/>
-      <c r="J41" s="133"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="129"/>
     </row>
     <row r="42" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
@@ -6639,43 +6358,43 @@
     </row>
     <row r="47" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
-      <c r="B47" s="105" t="s">
+      <c r="B47" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="106"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="113"/>
     </row>
     <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
-      <c r="B48" s="107" t="s">
+      <c r="B48" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="107"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="108"/>
+      <c r="C48" s="114"/>
+      <c r="D48" s="114"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="114"/>
+      <c r="I48" s="114"/>
+      <c r="J48" s="115"/>
     </row>
     <row r="49" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="106"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
+      <c r="G49" s="112"/>
+      <c r="H49" s="112"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="113"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
@@ -6685,14 +6404,14 @@
       <c r="C50" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="90" t="s">
+      <c r="D50" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
       <c r="J50" s="21"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
@@ -6703,101 +6422,101 @@
       <c r="C51" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="90" t="s">
+      <c r="D51" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
       <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="105"/>
-      <c r="I52" s="105"/>
-      <c r="J52" s="106"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="112"/>
+      <c r="D52" s="112"/>
+      <c r="E52" s="112"/>
+      <c r="F52" s="112"/>
+      <c r="G52" s="112"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="112"/>
+      <c r="J52" s="113"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="94" t="s">
+      <c r="B53" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="95"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="102"/>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="98"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="105"/>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="101"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
+      <c r="J55" s="108"/>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="101"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="108"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="101"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="108"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="103"/>
-      <c r="H58" s="103"/>
-      <c r="I58" s="103"/>
-      <c r="J58" s="104"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="111"/>
     </row>
     <row r="59" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
@@ -6817,14 +6536,14 @@
       <c r="C60" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="127"/>
-      <c r="E60" s="128"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="136"/>
       <c r="F60" s="15"/>
       <c r="G60" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
+      <c r="H60" s="132"/>
+      <c r="I60" s="132"/>
       <c r="J60" s="16"/>
     </row>
     <row r="61" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6833,14 +6552,14 @@
       <c r="C61" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="127"/>
-      <c r="E61" s="128"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="136"/>
       <c r="F61" s="15"/>
       <c r="G61" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
+      <c r="H61" s="132"/>
+      <c r="I61" s="132"/>
       <c r="J61" s="16"/>
     </row>
     <row r="62" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6849,14 +6568,14 @@
       <c r="C62" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="127"/>
-      <c r="E62" s="128"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="136"/>
       <c r="F62" s="15"/>
       <c r="G62" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
       <c r="J62" s="16"/>
     </row>
     <row r="63" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6865,14 +6584,14 @@
       <c r="C63" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="127"/>
-      <c r="E63" s="128"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="136"/>
       <c r="F63" s="15"/>
       <c r="G63" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H63" s="129"/>
-      <c r="I63" s="129"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
       <c r="J63" s="16"/>
     </row>
     <row r="64" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6881,14 +6600,14 @@
       <c r="C64" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="127"/>
-      <c r="E64" s="128"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="136"/>
       <c r="F64" s="15"/>
       <c r="G64" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
       <c r="J64" s="16"/>
     </row>
     <row r="65" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6897,14 +6616,14 @@
       <c r="C65" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="127"/>
-      <c r="E65" s="128"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="136"/>
       <c r="F65" s="15"/>
       <c r="G65" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H65" s="129"/>
-      <c r="I65" s="129"/>
+      <c r="H65" s="132"/>
+      <c r="I65" s="132"/>
       <c r="J65" s="16"/>
     </row>
     <row r="66" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6913,14 +6632,14 @@
       <c r="C66" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="127"/>
-      <c r="E66" s="128"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="136"/>
       <c r="F66" s="15"/>
       <c r="G66" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H66" s="129"/>
-      <c r="I66" s="129"/>
+      <c r="H66" s="132"/>
+      <c r="I66" s="132"/>
       <c r="J66" s="16"/>
     </row>
     <row r="67" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6929,14 +6648,14 @@
       <c r="C67" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="127"/>
-      <c r="E67" s="128"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="136"/>
       <c r="F67" s="15"/>
       <c r="G67" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="129"/>
-      <c r="I67" s="129"/>
+      <c r="H67" s="132"/>
+      <c r="I67" s="132"/>
       <c r="J67" s="16"/>
     </row>
     <row r="68" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6945,14 +6664,14 @@
       <c r="C68" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D68" s="127"/>
-      <c r="E68" s="128"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="136"/>
       <c r="F68" s="15"/>
       <c r="G68" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H68" s="129"/>
-      <c r="I68" s="129"/>
+      <c r="H68" s="132"/>
+      <c r="I68" s="132"/>
       <c r="J68" s="16"/>
     </row>
     <row r="69" spans="1:10" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
@@ -6961,14 +6680,14 @@
       <c r="C69" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="D69" s="127"/>
-      <c r="E69" s="128"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="136"/>
       <c r="F69" s="15"/>
       <c r="G69" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H69" s="129"/>
-      <c r="I69" s="129"/>
+      <c r="H69" s="132"/>
+      <c r="I69" s="132"/>
       <c r="J69" s="16"/>
     </row>
     <row r="70" spans="1:10" s="3" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6985,13 +6704,43 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B54:J58"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="D50:I50"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="H66:I66"/>
     <mergeCell ref="H67:I67"/>
     <mergeCell ref="H68:I68"/>
@@ -7008,43 +6757,13 @@
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B54:J58"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B47:J47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="D50:I50"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E15" xr:uid="{5591E59C-4195-4D6D-ACF0-B1CB3E8A2624}">
@@ -7320,28 +7039,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="145"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7349,15 +7068,15 @@
       <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149" t="s">
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="145"/>
+      <c r="G3" s="144"/>
       <c r="H3" s="23" t="s">
         <v>20</v>
       </c>
@@ -7368,15 +7087,15 @@
       <c r="B4" s="24">
         <v>43137</v>
       </c>
-      <c r="C4" s="153">
+      <c r="C4" s="152">
         <v>1</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="150" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="154"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="25" t="s">
         <v>29</v>
       </c>
@@ -7387,15 +7106,15 @@
       <c r="B5" s="24">
         <v>43728</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="149">
         <v>2</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="150" t="s">
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="155"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="56" t="s">
         <v>36</v>
       </c>
@@ -7406,15 +7125,15 @@
       <c r="B6" s="77">
         <v>43920</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="159">
         <v>3</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="138" t="s">
+      <c r="D6" s="160"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="141"/>
+      <c r="G6" s="162"/>
       <c r="H6" s="78" t="s">
         <v>36</v>
       </c>
@@ -7424,15 +7143,15 @@
       <c r="B7" s="79">
         <v>44543</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="155">
         <v>4</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134" t="s">
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="134"/>
+      <c r="G7" s="155"/>
       <c r="H7" s="80" t="s">
         <v>36</v>
       </c>
@@ -7441,21 +7160,27 @@
       <c r="B8" s="79">
         <v>44599</v>
       </c>
-      <c r="C8" s="135">
+      <c r="C8" s="156">
         <v>5</v>
       </c>
-      <c r="D8" s="136"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="135" t="s">
+      <c r="D8" s="157"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="137"/>
+      <c r="G8" s="158"/>
       <c r="H8" s="80" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="C3:E3"/>
@@ -7464,12 +7189,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
@@ -7501,28 +7220,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
-      <c r="B1" s="142" t="s">
+      <c r="B1" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
       <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="145"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -7530,15 +7249,15 @@
       <c r="B3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="147"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149" t="s">
+      <c r="D3" s="146"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="145"/>
+      <c r="G3" s="144"/>
       <c r="H3" s="23" t="s">
         <v>20</v>
       </c>
@@ -7549,15 +7268,15 @@
       <c r="B4" s="24">
         <v>43137</v>
       </c>
-      <c r="C4" s="153">
+      <c r="C4" s="152">
         <v>1</v>
       </c>
-      <c r="D4" s="151"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="150" t="s">
+      <c r="D4" s="150"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="154"/>
+      <c r="G4" s="153"/>
       <c r="H4" s="25" t="s">
         <v>29</v>
       </c>
@@ -7568,15 +7287,15 @@
       <c r="B5" s="24">
         <v>43728</v>
       </c>
-      <c r="C5" s="150">
+      <c r="C5" s="149">
         <v>2</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="150" t="s">
+      <c r="D5" s="150"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="155"/>
+      <c r="G5" s="154"/>
       <c r="H5" s="56" t="s">
         <v>36</v>
       </c>
@@ -7587,15 +7306,15 @@
       <c r="B6" s="24">
         <v>43920</v>
       </c>
-      <c r="C6" s="150">
+      <c r="C6" s="149">
         <v>3</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="150" t="s">
+      <c r="D6" s="150"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="155"/>
+      <c r="G6" s="154"/>
       <c r="H6" s="56" t="s">
         <v>36</v>
       </c>
